--- a/backend/auxiliar/albireo.plate-coefs.xlsx
+++ b/backend/auxiliar/albireo.plate-coefs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,14 +456,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>X²</t>
+          <t>X³</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-2.980280285904378e-09</v>
+        <v>-6.012381625503703e-12</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.979088179626369e-10</v>
+        <v>-3.480997794492862e-11</v>
       </c>
     </row>
     <row r="3">
@@ -472,14 +472,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Y²</t>
+          <t>X²Y</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1.89179144411749e-09</v>
+        <v>1.058815889446084e-11</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.468942389450439e-08</v>
+        <v>6.676038178035399e-13</v>
       </c>
     </row>
     <row r="4">
@@ -488,14 +488,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>XY</t>
+          <t>XY²</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1.59268949515446e-09</v>
+        <v>-5.605361859614631e-11</v>
       </c>
       <c r="D4" t="n">
-        <v>1.148165809479058e-08</v>
+        <v>1.49343710714519e-10</v>
       </c>
     </row>
     <row r="5">
@@ -504,14 +504,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Y³</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-9.525417218381182e-06</v>
+        <v>1.555203461970007e-11</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0002420978610970133</v>
+        <v>-3.942116928602267e-11</v>
       </c>
     </row>
     <row r="6">
@@ -520,14 +520,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>X²</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.0002774257905276689</v>
+        <v>1.570812355623091e-09</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.937639010087427e-06</v>
+        <v>7.98651376093351e-08</v>
       </c>
     </row>
     <row r="7">
@@ -536,14 +536,78 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>XY</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4.411993144177312e-08</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-1.501778878432668e-07</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Y²</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1.076669423321491e-08</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-5.284675560796471e-08</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>-1.680650016988583e-05</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0002222532045222658</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.0003017716375390833</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6.887305019316614e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>ind</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>293.0995028651066</v>
-      </c>
-      <c r="D7" t="n">
-        <v>27.79234015530411</v>
+      <c r="C11" t="n">
+        <v>293.1341250401416</v>
+      </c>
+      <c r="D11" t="n">
+        <v>27.85148860818273</v>
       </c>
     </row>
   </sheetData>
